--- a/젠존제 육성 필요재화.xlsx
+++ b/젠존제 육성 필요재화.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0402c\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0402c\Desktop\Game Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FFE73F-771E-4CF3-A122-C961F69B5105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4110AB06-ADEE-4D27-AE3F-BE4C1C13184B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="60" windowWidth="7500" windowHeight="10335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZZZ 재화 표" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="243">
   <si>
     <t>진급</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -354,10 +354,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>인게임 도감</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SSR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -383,6 +379,626 @@
   </si>
   <si>
     <t>NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔저 E.G.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔져 F.A.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔져 O.W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로덕트 08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로덕트 12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로덕트 23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iDoll 플라워</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iDoll 오션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iDoll 썬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네온</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>델타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앵커</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미하라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에테르</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨로타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미카</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네베</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>히메노</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파스칼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>람</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리바티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그널</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미란다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>브리드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔린</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디젤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>길로틴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이든</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네온 : 블루 오션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬름 : 아쿠아마린</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마르차나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출시순서 / 풀네임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그레이브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신데렐라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루마니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팬텀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀀시 : 이스케이프 퀸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아스카</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>츠바이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로산나 : 시크 오션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사쿠라 : 블룸 인 서머</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클레이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨리스 : 원더랜드 바니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소다 : 트윙클링 바니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고 젤다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%EC%8A%B9%EB%A6%AC%EC%9D%98%20%EC%97%AC%EC%8B%A0:%20%EB%8B%88%EC%BC%80/%EB%8C%80%EC%9B%90%20%EB%AA%A8%EC%A7%91</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트로니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크라운</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>렘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에밀리아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D : 킬러 와이프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일레그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레오나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍련 : 흑영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미카 : 스노우 버디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루드밀라 : 윈터 오너</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 후드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니스 : 스파클링 서머</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메어리 : 베이 갓데스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로산나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누아르</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사쿠라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비스킷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파워</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마키마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코코아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이퍼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자칼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모더니아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앤 : 미라클 페어리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루피 : 윈터 소퍼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라플라스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥스웰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>율리아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>센티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드레이크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크로우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페퍼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애드미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>길티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀀시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에피넬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>킬로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑시아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨리스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메어리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>율하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루드밀라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노벨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴크방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노이즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼륨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스노우 화이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사벨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라푼젤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하란</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>니힐리스타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스노우 화이트 : 이노센트 데이즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라푼젤 : 퓨어 그레이스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘리시온</t>
+  </si>
+  <si>
+    <t>미실리스</t>
+  </si>
+  <si>
+    <t>테트라</t>
+  </si>
+  <si>
+    <t>수냉</t>
+  </si>
+  <si>
+    <t>수냉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>철갑</t>
+  </si>
+  <si>
+    <t>철갑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전격</t>
+  </si>
+  <si>
+    <t>전격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍압</t>
+  </si>
+  <si>
+    <t>풍압</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작열</t>
+  </si>
+  <si>
+    <t>작열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +1010,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0."/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +1057,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -450,7 +1075,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -812,16 +1437,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,25 +1544,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -875,16 +1565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -898,15 +1579,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -941,12 +1613,114 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3809,319 +4583,320 @@
   <cols>
     <col min="1" max="1" width="9" style="7" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.875" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="3.375" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="27">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <v>0</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="11">
         <v>0</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="11">
         <v>1</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="38">
+      <c r="A3" s="38"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="29">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="39"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="28">
         <v>1</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="28">
         <v>1</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="15">
         <f>SUM(E2:E5)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <f t="shared" ref="F6:H6" si="0">SUM(F2:F5)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="27">
         <v>1</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="28">
         <v>1</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="28">
         <v>1</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="15">
         <f>SUM(E7:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="15">
         <f t="shared" ref="F10" si="1">SUM(F7:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="15">
         <f t="shared" ref="G10" si="2">SUM(G7:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="16">
         <f t="shared" ref="H10" si="3">SUM(H7:H9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="27">
         <v>1</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="31" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="28">
         <v>1</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="28">
         <v>1</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="15">
         <f>SUM(E11:E13)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="15">
         <f t="shared" ref="F14" si="4">SUM(F11:F13)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="15">
         <f t="shared" ref="G14" si="5">SUM(G11:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="16">
         <f t="shared" ref="H14" si="6">SUM(H11:H13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="27">
         <v>1</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="28">
         <v>1</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="28">
         <v>1</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="10">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="9">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <f t="shared" ref="F18" si="7">SUM(F15:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <f t="shared" ref="G18" si="8">SUM(G15:G17)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="17">
         <f t="shared" ref="H18" si="9">SUM(H15:H17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="27">
         <v>1</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="31" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="28">
         <v>1</v>
       </c>
       <c r="D20" s="7"/>
@@ -4130,12 +4905,12 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" s="25" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="31" t="s">
+    <row r="21" spans="1:8" s="19" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="26"/>
+      <c r="B21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="28">
         <v>1</v>
       </c>
       <c r="D21" s="7"/>
@@ -4144,52 +4919,52 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" s="26" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:8" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="15">
         <f>SUM(E19:E21)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="15">
         <f t="shared" ref="F22" si="10">SUM(F19:F21)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="15">
         <f t="shared" ref="G22" si="11">SUM(G19:G21)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="15">
         <f t="shared" ref="H22" si="12">SUM(H19:H21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4198,631 +4973,2118 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59899EFF-D160-46C3-B155-0229A030CF54}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:T117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="6" width="9" style="5"/>
+    <col min="1" max="1" width="5.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.75" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="8" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.625" style="5" customWidth="1"/>
+    <col min="8" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="5.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.625" customWidth="1"/>
+    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+    </row>
+    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="56"/>
+    </row>
+    <row r="3" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44"/>
+      <c r="B3" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" s="53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="30">
+        <v>3</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="R4" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="13">
+        <v>3</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="13">
+        <v>1</v>
+      </c>
+      <c r="N5" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="R5" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="13">
+        <v>2</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="R6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="L7" s="13">
+        <v>1</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="L8" s="13">
+        <v>3</v>
+      </c>
+      <c r="N8" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="R8" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="13">
+        <v>3</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="L9" s="13">
+        <v>1</v>
+      </c>
+      <c r="N9" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="R9" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="13">
+        <v>3</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="L10" s="13">
+        <v>1</v>
+      </c>
+      <c r="N10" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="R10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="L11" s="13">
+        <v>2</v>
+      </c>
+      <c r="N11" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="R11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="13">
+        <v>3</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="L12" s="13">
+        <v>2</v>
+      </c>
+      <c r="N12" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="R12" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="L13" s="13">
+        <v>1</v>
+      </c>
+      <c r="N13" s="60"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="13">
+        <v>3</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="L14" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="13">
+        <v>3</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="L16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F38" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F42" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F43" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F45" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F47" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F50" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F52" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F57" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F58" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F59" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F60" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F61" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" s="57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" s="57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" s="57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" s="57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" s="57" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" s="57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" s="57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" s="57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" s="57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" s="57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" s="57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" s="57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" s="57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" s="57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" s="57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" s="57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" s="57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82" s="57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83" s="57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>81</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84" s="57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>82</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85" s="57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86" s="57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87" s="57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88" s="57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89" s="57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>87</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90" s="57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91" s="57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92" s="57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93" s="57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94" s="57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95" s="57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>93</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96" s="57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" s="57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98" s="57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>96</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99" s="57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>97</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>98</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101" s="57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>99</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103" s="57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>101</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104" s="57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105" s="57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>103</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106" s="57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>104</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107" s="57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>105</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108" s="57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>106</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109" s="57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>107</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110" s="57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>108</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111" s="57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>109</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112" s="57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>110</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113" s="57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>111</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114" s="57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>112</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115" s="57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>113</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116" s="57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>114</v>
       </c>
+      <c r="B117" s="57" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:F2"/>
+  <mergeCells count="5">
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B4:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{C88E451F-48D0-49EE-BED2-7DB45968C2BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>